--- a/docs/ARTEFATOS(15-23)/PREPARAR_PEDIDO/Analise_de_Eventos_PREPARAR_PEDIDO.xlsx
+++ b/docs/ARTEFATOS(15-23)/PREPARAR_PEDIDO/Analise_de_Eventos_PREPARAR_PEDIDO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -57,31 +57,22 @@
     <t xml:space="preserve">Extemporâneo</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar o preparo dos pratos diários</t>
+    <t xml:space="preserve">Preparar pedido</t>
   </si>
   <si>
     <t xml:space="preserve">FB</t>
   </si>
   <si>
-    <t xml:space="preserve">O chefe de cozinha consulta pratos diários</t>
+    <t xml:space="preserve">O cozinheiro consulta pratos diários</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">O chefe de cozinha atualiza cardápio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montar o prato conforme o pedido</t>
   </si>
   <si>
     <t xml:space="preserve">O Cozinheiro recebe pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingredientes indisponíveis</t>
   </si>
 </sst>
 </file>
@@ -123,7 +114,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,14 +145,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -183,13 +168,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -216,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,10 +251,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,10 +261,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -340,7 +310,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -377,7 +347,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,7 +358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.57"/>
@@ -463,94 +433,57 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="17"/>
+    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
